--- a/data/suma_status.xlsx
+++ b/data/suma_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69E7840-B28A-1448-8246-46D9AD385FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B55F6-D620-9244-982C-1E4974744181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{F2A81303-580D-0040-8047-672C731AAF4D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7066A81-6CF3-AB4A-8854-A03D8D5F6489}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -414,6 +414,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/suma_status.xlsx
+++ b/data/suma_status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B55F6-D620-9244-982C-1E4974744181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E7309E-9F8F-0245-8A18-753A2BA5152C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{F2A81303-580D-0040-8047-672C731AAF4D}"/>
+    <workbookView xWindow="33700" yWindow="4180" windowWidth="28040" windowHeight="16260" xr2:uid="{F2A81303-580D-0040-8047-672C731AAF4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7066A81-6CF3-AB4A-8854-A03D8D5F6489}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -422,6 +422,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/suma_status.xlsx
+++ b/data/suma_status.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E7309E-9F8F-0245-8A18-753A2BA5152C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C300C8-D653-9841-97BC-718C25A04B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33700" yWindow="4180" windowWidth="28040" windowHeight="16260" xr2:uid="{F2A81303-580D-0040-8047-672C731AAF4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7066A81-6CF3-AB4A-8854-A03D8D5F6489}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -430,6 +430,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/suma_status.xlsx
+++ b/data/suma_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C300C8-D653-9841-97BC-718C25A04B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DB69B-5F6E-E740-9223-8C117C3BC517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33700" yWindow="4180" windowWidth="28040" windowHeight="16260" xr2:uid="{F2A81303-580D-0040-8047-672C731AAF4D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7066A81-6CF3-AB4A-8854-A03D8D5F6489}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -438,6 +438,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/suma_status.xlsx
+++ b/data/suma_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DB69B-5F6E-E740-9223-8C117C3BC517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE324A2B-7BBD-DF41-B4CF-86313D8F74E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33700" yWindow="4180" windowWidth="28040" windowHeight="16260" xr2:uid="{F2A81303-580D-0040-8047-672C731AAF4D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7066A81-6CF3-AB4A-8854-A03D8D5F6489}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -446,6 +446,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
